--- a/app/Licenciatura_em_Arqueologia_e_Gestao_do_Patrimonio_Cultural.xlsx
+++ b/app/Licenciatura_em_Arqueologia_e_Gestao_do_Patrimonio_Cultural.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Maria Afai</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Lordina Amelia Nhatumbo</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>Fatima Salazar Matola</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>+258846140739</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>Maria Isabel Xavier</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100103434S</t>
   </si>
   <si>
@@ -341,9 +329,6 @@
     <t>Anifa Abdula Omar</t>
   </si>
   <si>
-    <t>Distrito de Govuro</t>
-  </si>
-  <si>
     <t>080302430736B</t>
   </si>
   <si>
@@ -368,9 +353,6 @@
     <t>Biatriz Dambuzo</t>
   </si>
   <si>
-    <t>Distrito de Gondola</t>
-  </si>
-  <si>
     <t>060104631611F</t>
   </si>
   <si>
@@ -395,9 +377,6 @@
     <t>Alice Francisco</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110101537473J</t>
   </si>
   <si>
@@ -446,9 +425,6 @@
     <t>AngÉlica Gustavo Sibia</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Cartao de Eleitor</t>
   </si>
   <si>
@@ -518,9 +494,6 @@
     <t>Isaura Abdula Jussa</t>
   </si>
   <si>
-    <t>Distrito de Mocuba</t>
-  </si>
-  <si>
     <t>050104865009S</t>
   </si>
   <si>
@@ -605,9 +578,6 @@
     <t>Elisa Raimundo Ngovene</t>
   </si>
   <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
     <t>080501032823A</t>
   </si>
   <si>
@@ -695,9 +665,6 @@
     <t>Carolina Raimundo Zitha</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080400635262Q</t>
   </si>
   <si>
@@ -719,9 +686,6 @@
     <t>Laissa Amuge</t>
   </si>
   <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
     <t>020102318049M</t>
   </si>
   <si>
@@ -800,9 +764,6 @@
     <t>Januario Da Costa</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>+258842507807</t>
   </si>
   <si>
@@ -824,9 +785,6 @@
     <t>Marta Marcelino Chihote</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100631318J</t>
   </si>
   <si>
@@ -848,9 +806,6 @@
     <t>Fatima Chingo</t>
   </si>
   <si>
-    <t>Distrito de Mocimboa da Praia</t>
-  </si>
-  <si>
     <t>020904921267 S</t>
   </si>
   <si>
@@ -873,9 +828,6 @@
   </si>
   <si>
     <t>Isabel  Mondlane</t>
-  </si>
-  <si>
-    <t>Distrito de Namaacha</t>
   </si>
   <si>
     <t>100802917584M</t>
@@ -2165,7 +2117,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2181,7 +2133,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2197,7 +2149,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2213,7 +2165,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2229,7 +2181,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2244,9 +2196,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2254,7 +2204,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2265,7 +2215,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2274,7 +2224,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2286,7 +2236,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2294,7 +2244,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2390,7 +2340,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2433,7 +2383,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2760,7 +2710,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2776,7 +2726,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2792,7 +2742,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2808,7 +2758,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2824,7 +2774,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2839,9 +2789,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2849,7 +2797,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2860,7 +2808,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2869,7 +2817,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2881,7 +2829,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2889,7 +2837,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2985,7 +2933,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3028,7 +2976,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3355,7 +3303,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3371,7 +3319,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3387,7 +3335,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3417,7 +3365,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3432,9 +3380,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3442,7 +3388,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3453,7 +3399,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3462,7 +3408,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3474,7 +3420,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3482,7 +3428,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3578,7 +3524,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3621,7 +3567,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3948,7 +3894,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3964,7 +3910,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3980,7 +3926,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3996,7 +3942,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4012,7 +3958,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4027,9 +3973,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4037,7 +3981,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4048,7 +3992,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4057,7 +4001,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4069,7 +4013,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4173,7 +4117,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4216,7 +4160,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4543,7 +4487,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4559,7 +4503,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4575,7 +4519,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4591,7 +4535,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4607,7 +4551,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4622,9 +4566,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4632,7 +4574,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4643,7 +4585,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4652,7 +4594,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4664,7 +4606,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4672,7 +4614,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4768,7 +4710,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4811,7 +4753,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5138,7 +5080,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5154,7 +5096,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5170,7 +5112,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5186,7 +5128,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5202,7 +5144,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5217,9 +5159,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5227,7 +5167,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5238,7 +5178,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5247,7 +5187,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5259,7 +5199,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5267,7 +5207,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5363,7 +5303,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5406,7 +5346,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5733,7 +5673,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5749,7 +5689,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5765,7 +5705,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5781,7 +5721,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5797,7 +5737,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5812,9 +5752,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5822,7 +5760,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5833,7 +5771,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5842,7 +5780,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5854,7 +5792,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5862,7 +5800,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5958,7 +5896,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6001,7 +5939,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6328,7 +6266,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6344,7 +6282,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6360,7 +6298,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6376,7 +6314,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6392,7 +6330,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6407,9 +6345,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6417,7 +6353,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6428,7 +6364,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6437,7 +6373,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6449,7 +6385,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6457,7 +6393,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6553,7 +6489,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6596,7 +6532,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6923,7 +6859,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6939,7 +6875,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6955,7 +6891,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6971,7 +6907,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6987,7 +6923,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7002,9 +6938,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>185</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7012,7 +6946,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7023,7 +6957,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7032,7 +6966,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7044,7 +6978,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7052,7 +6986,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7148,7 +7082,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7191,7 +7125,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7518,7 +7452,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7534,7 +7468,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7550,7 +7484,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7566,7 +7500,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7582,7 +7516,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7597,9 +7531,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7607,7 +7539,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7618,7 +7550,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7627,7 +7559,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7639,7 +7571,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7647,7 +7579,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7743,7 +7675,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7786,7 +7718,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8192,9 +8124,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8202,7 +8132,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8213,7 +8143,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8222,7 +8152,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8234,7 +8164,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8242,7 +8172,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8338,7 +8268,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8381,7 +8311,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8708,7 +8638,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8724,7 +8654,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8740,7 +8670,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8756,7 +8686,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8785,9 +8715,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8795,7 +8723,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8806,7 +8734,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8815,7 +8743,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8827,7 +8755,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8835,7 +8763,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8931,7 +8859,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8974,7 +8902,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9301,7 +9229,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9317,7 +9245,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9333,7 +9261,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9349,7 +9277,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9365,7 +9293,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9380,9 +9308,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9390,7 +9316,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9401,7 +9327,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9410,7 +9336,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9422,7 +9348,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9430,7 +9356,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9526,7 +9452,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9569,7 +9495,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9896,7 +9822,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9912,7 +9838,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9928,7 +9854,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9944,7 +9870,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9960,7 +9886,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9975,9 +9901,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9985,7 +9909,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9996,7 +9920,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10005,7 +9929,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10017,7 +9941,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10025,7 +9949,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10121,7 +10045,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10164,7 +10088,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10491,7 +10415,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10507,7 +10431,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10523,7 +10447,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10539,7 +10463,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10555,7 +10479,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10570,9 +10494,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>223</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10580,7 +10502,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10591,7 +10513,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10600,7 +10522,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10612,7 +10534,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10620,7 +10542,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10716,7 +10638,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10759,7 +10681,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11086,7 +11008,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11102,7 +11024,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11118,7 +11040,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11134,7 +11056,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11150,7 +11072,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11165,9 +11087,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11175,7 +11095,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11186,7 +11106,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11195,7 +11115,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11207,7 +11127,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11311,7 +11231,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11354,7 +11274,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11681,7 +11601,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11697,7 +11617,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11888,7 +11808,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12254,7 +12174,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12270,7 +12190,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12286,7 +12206,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12302,7 +12222,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12318,7 +12238,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12333,9 +12253,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12343,7 +12261,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12354,7 +12272,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12363,7 +12281,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12375,7 +12293,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12383,7 +12301,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12479,7 +12397,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12522,7 +12440,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12849,7 +12767,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12865,7 +12783,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12881,7 +12799,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12897,7 +12815,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12913,7 +12831,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12928,9 +12846,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12938,7 +12854,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12949,7 +12865,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12958,7 +12874,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12970,7 +12886,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13074,7 +12990,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13117,7 +13033,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13444,7 +13360,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13460,7 +13376,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13476,7 +13392,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13492,7 +13408,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13508,7 +13424,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13523,9 +13439,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>258</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13533,7 +13447,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13544,7 +13458,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13553,7 +13467,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13565,7 +13479,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13573,7 +13487,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13669,7 +13583,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13712,7 +13626,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14039,7 +13953,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14055,7 +13969,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14071,7 +13985,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14087,7 +14001,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14103,7 +14017,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14118,9 +14032,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>266</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14128,7 +14040,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14139,7 +14051,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14148,7 +14060,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14160,7 +14072,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14168,7 +14080,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14264,7 +14176,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14307,7 +14219,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14634,7 +14546,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14650,7 +14562,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14666,7 +14578,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14682,7 +14594,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14698,7 +14610,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14713,9 +14625,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14723,7 +14633,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14734,7 +14644,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14743,7 +14653,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14755,7 +14665,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14763,7 +14673,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14859,7 +14769,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14902,7 +14812,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15229,7 +15139,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15245,7 +15155,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15261,7 +15171,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15277,7 +15187,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15293,7 +15203,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15308,9 +15218,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>275</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15318,7 +15226,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15329,7 +15237,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15338,7 +15246,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15350,7 +15258,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15358,7 +15266,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15454,7 +15362,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15497,7 +15405,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15824,7 +15732,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15840,7 +15748,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15856,7 +15764,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15872,7 +15780,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15888,7 +15796,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15903,9 +15811,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15913,7 +15819,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15924,7 +15830,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15933,7 +15839,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15945,7 +15851,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15953,7 +15859,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16049,7 +15955,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16092,7 +15998,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16475,7 +16381,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16491,7 +16397,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16507,7 +16413,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16523,7 +16429,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16539,7 +16445,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16554,9 +16460,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16564,7 +16468,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16575,7 +16479,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16584,7 +16488,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16596,7 +16500,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16700,7 +16604,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16743,7 +16647,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17070,7 +16974,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17086,7 +16990,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17102,7 +17006,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17118,7 +17022,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17134,7 +17038,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17149,9 +17053,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17159,7 +17061,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17170,7 +17072,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17179,7 +17081,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17191,7 +17093,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17199,7 +17101,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17295,7 +17197,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17338,7 +17240,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17665,7 +17567,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17681,7 +17583,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17697,7 +17599,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17713,7 +17615,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17729,7 +17631,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17744,9 +17646,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17754,7 +17654,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17765,7 +17665,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17774,7 +17674,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17786,7 +17686,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17794,7 +17694,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17890,7 +17790,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17933,7 +17833,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18260,7 +18160,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18276,7 +18176,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18292,7 +18192,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18308,7 +18208,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18324,7 +18224,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18339,9 +18239,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18349,7 +18247,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18360,7 +18258,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18369,7 +18267,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18381,7 +18279,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18389,7 +18287,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18485,7 +18383,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18528,7 +18426,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18855,7 +18753,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18871,7 +18769,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18887,7 +18785,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18903,7 +18801,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18919,7 +18817,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18934,9 +18832,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18944,7 +18840,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18955,7 +18851,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18964,7 +18860,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18976,7 +18872,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18984,7 +18880,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19080,7 +18976,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19123,7 +19019,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19450,7 +19346,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19466,7 +19362,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19482,7 +19378,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19498,7 +19394,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19514,7 +19410,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19529,9 +19425,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19539,7 +19433,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19550,7 +19444,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19559,7 +19453,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19571,7 +19465,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19579,7 +19473,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19675,7 +19569,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19718,7 +19612,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
